--- a/2020/Requisition/29.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/29.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD30D8D-EB32-48A1-B241-12F7D56BFD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1463E-AF3F-409B-92A6-19718209E6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>Model Name</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>B24</t>
-  </si>
-  <si>
-    <t>28.01.2020</t>
   </si>
   <si>
     <t>SB Tel Enterprised Ltd</t>
@@ -1122,13 +1119,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BV109"/>
+  <dimension ref="A1:BV110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1372,11 +1369,11 @@
         <v>760.9</v>
       </c>
       <c r="C7" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <f>C7*B7</f>
-        <v>38045</v>
+        <v>76090</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>98</v>
@@ -1681,11 +1678,11 @@
         <v>896.23500000000001</v>
       </c>
       <c r="C13" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>44811.75</v>
+        <v>89623.5</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>128</v>
@@ -1985,17 +1982,19 @@
       <c r="BU23" s="26"/>
       <c r="BV23" s="26"/>
     </row>
-    <row r="24" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="9">
         <v>1140.845</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8">
+        <v>300</v>
+      </c>
       <c r="D24" s="12">
         <f>C24*B24</f>
-        <v>0</v>
+        <v>342253.5</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>128</v>
@@ -2102,19 +2101,17 @@
       <c r="BU26" s="26"/>
       <c r="BV26" s="26"/>
     </row>
-    <row r="27" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="9">
         <v>1014.53</v>
       </c>
-      <c r="C27" s="8">
-        <v>20</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
-        <v>20290.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>124</v>
@@ -2439,17 +2436,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="9">
         <v>4885.6000000000004</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8">
+        <v>10</v>
+      </c>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48856</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>123</v>
@@ -2554,17 +2553,19 @@
       <c r="BU37" s="26"/>
       <c r="BV37" s="26"/>
     </row>
-    <row r="38" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="9">
         <v>5412.5</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8">
+        <v>10</v>
+      </c>
       <c r="D38" s="10">
         <f>C38*B38</f>
-        <v>0</v>
+        <v>54125</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>122</v>
@@ -2663,14 +2664,14 @@
         <v>5792.76</v>
       </c>
       <c r="C40" s="8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D40" s="10">
         <f t="shared" si="0"/>
-        <v>272259.72000000003</v>
+        <v>115855.20000000001</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2701,17 +2702,19 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="9">
         <v>5877.96</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8">
+        <v>10</v>
+      </c>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58779.6</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>92</v>
@@ -4017,11 +4020,11 @@
         <v>8101.24</v>
       </c>
       <c r="C95" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D95" s="10">
         <f>C95*B95</f>
-        <v>105316.12</v>
+        <v>121518.59999999999</v>
       </c>
       <c r="E95" s="41" t="s">
         <v>92</v>
@@ -4050,11 +4053,11 @@
       <c r="B97" s="47"/>
       <c r="C97" s="16">
         <f>SUBTOTAL(9,C7:C96)</f>
-        <v>280</v>
+        <v>665</v>
       </c>
       <c r="D97" s="17">
         <f>SUBTOTAL(9,D7:D96)</f>
-        <v>571449.19000000006</v>
+        <v>997827.39999999991</v>
       </c>
       <c r="E97" s="31"/>
       <c r="F97" s="33"/>
@@ -4211,10 +4214,10 @@
         <v>22</v>
       </c>
       <c r="C102" s="21">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
@@ -4224,21 +4227,23 @@
     <row r="103" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
       <c r="B103" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="C103" s="21">
+        <v>400000</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="G103" s="38"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="39"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
       <c r="J103" s="37"/>
     </row>
     <row r="104" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
       <c r="B104" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="8"/>
@@ -4246,44 +4251,58 @@
       <c r="F104" s="25"/>
       <c r="G104" s="38"/>
       <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
+      <c r="I104" s="39"/>
       <c r="J104" s="37"/>
     </row>
     <row r="105" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
       <c r="B105" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="8"/>
       <c r="E105" s="23"/>
       <c r="F105" s="25"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
     </row>
     <row r="106" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
-      <c r="B106" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="22">
-        <f>SUBTOTAL(9,C101:C105)</f>
-        <v>350000</v>
-      </c>
-      <c r="D106" s="15"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="23"/>
       <c r="F106" s="25"/>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="26"/>
+    <row r="107" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="28"/>
+      <c r="B107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="22">
+        <f>SUBTOTAL(9,C101:C106)</f>
+        <v>770000</v>
+      </c>
+      <c r="D107" s="15"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="24"/>
+      <c r="F108" s="26"/>
     </row>
     <row r="109" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
         <v>116</v>
       </c>
     </row>
